--- a/data/Forecast - Benchmark.xlsx
+++ b/data/Forecast - Benchmark.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>A-1</t>
+          <t>Years</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>P-1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>C-1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>S-2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>C-2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>P-1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>S-1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>S-2</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Years</t>
+          <t>A-1</t>
         </is>
       </c>
     </row>
@@ -475,25 +475,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.28398765</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.57930603</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8.940516039999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>13.51342822</v>
+      </c>
+      <c r="G2" t="n">
+        <v>23.63286533</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.341908</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.57930603</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.51342822</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2.28398765</v>
-      </c>
-      <c r="F2" t="n">
-        <v>23.63286533</v>
-      </c>
-      <c r="G2" t="n">
-        <v>8.940516039999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2024</v>
       </c>
     </row>
     <row r="3">
@@ -501,25 +501,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.188742137429379</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.513446736788313</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8.567683887043453</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12.94989916702977</v>
+      </c>
+      <c r="G3" t="n">
+        <v>22.64734144948851</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.285948540112983</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.513446736788313</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.94989916702977</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.188742137429379</v>
-      </c>
-      <c r="F3" t="n">
-        <v>22.64734144948851</v>
-      </c>
-      <c r="G3" t="n">
-        <v>8.567683887043453</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2025</v>
       </c>
     </row>
     <row r="4">
@@ -527,25 +527,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>2026</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.097468497326999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.450333869171127</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8.210399361724539</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12.40987007190677</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21.70291530746518</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.232322668781103</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.450333869171127</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.40987007190677</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.097468497326999</v>
-      </c>
-      <c r="F4" t="n">
-        <v>21.70291530746518</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8.210399361724539</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2026</v>
       </c>
     </row>
     <row r="5">
@@ -553,25 +553,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>2027</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.010001096998174</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.389852897320103</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7.868014105999992</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11.89236095318033</v>
+      </c>
+      <c r="G5" t="n">
+        <v>20.79787307015873</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.180933072063952</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.389852897320103</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.89236095318033</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.010001096998174</v>
-      </c>
-      <c r="F5" t="n">
-        <v>20.79787307015873</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7.868014105999992</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2027</v>
       </c>
     </row>
     <row r="6">
@@ -579,25 +579,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>2028</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.926181210865646</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.331894067462587</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7.53990679927316</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11.39643269601111</v>
+      </c>
+      <c r="G6" t="n">
+        <v>19.93057237308798</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.131686494149956</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.331894067462587</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11.39643269601111</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.926181210865646</v>
-      </c>
-      <c r="F6" t="n">
-        <v>19.93057237308798</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7.53990679927316</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2028</v>
       </c>
     </row>
     <row r="7">
@@ -605,25 +605,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>2029</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.845856732433024</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.276352202713343</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.225482030894272</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10.92118534797569</v>
+      </c>
+      <c r="G7" t="n">
+        <v>19.09943934069149</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.084493568126664</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.276352202713343</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10.92118534797569</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.845856732433024</v>
-      </c>
-      <c r="F7" t="n">
-        <v>19.09943934069149</v>
-      </c>
-      <c r="G7" t="n">
-        <v>7.225482030894272</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2029</v>
       </c>
     </row>
     <row r="8">
@@ -631,25 +631,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>2030</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.768881898259768</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.223126512211876</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.924169219679055</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10.4657564859384</v>
+      </c>
+      <c r="G8" t="n">
+        <v>18.30296573024283</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.039268653808162</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.223126512211876</v>
-      </c>
-      <c r="D8" t="n">
-        <v>10.4657564859384</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.768881898259768</v>
-      </c>
-      <c r="F8" t="n">
-        <v>18.30296573024283</v>
-      </c>
-      <c r="G8" t="n">
-        <v>6.924169219679055</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2030</v>
       </c>
     </row>
   </sheetData>
